--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel05/field_64ha_100ha_18%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel05/field_64ha_100ha_18%_6m_0_LM/Planilha_Unificada.xlsx
@@ -2927,28 +2927,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>5064.827013348548</v>
+        <v>5544.327893920497</v>
       </c>
       <c r="AB2" t="n">
-        <v>6929.919764061796</v>
+        <v>7585.994022946243</v>
       </c>
       <c r="AC2" t="n">
-        <v>6268.537947982952</v>
+        <v>6861.997400405447</v>
       </c>
       <c r="AD2" t="n">
-        <v>5064827.013348549</v>
+        <v>5544327.893920496</v>
       </c>
       <c r="AE2" t="n">
-        <v>6929919.764061796</v>
+        <v>7585994.022946242</v>
       </c>
       <c r="AF2" t="n">
         <v>1.672841009974724e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>94</v>
+        <v>93.81510416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>6268537.947982952</v>
+        <v>6861997.400405447</v>
       </c>
     </row>
     <row r="3">
@@ -3033,28 +3033,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2468.924569232078</v>
+        <v>2762.478722116043</v>
       </c>
       <c r="AB3" t="n">
-        <v>3378.091516888239</v>
+        <v>3779.745259559314</v>
       </c>
       <c r="AC3" t="n">
-        <v>3055.69120369752</v>
+        <v>3419.01167689262</v>
       </c>
       <c r="AD3" t="n">
-        <v>2468924.569232078</v>
+        <v>2762478.722116043</v>
       </c>
       <c r="AE3" t="n">
-        <v>3378091.516888239</v>
+        <v>3779745.259559315</v>
       </c>
       <c r="AF3" t="n">
         <v>2.645591186548872e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>60</v>
+        <v>59.32942708333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>3055691.20369752</v>
+        <v>3419011.676892621</v>
       </c>
     </row>
     <row r="4">
@@ -3139,28 +3139,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1992.90096126867</v>
+        <v>2257.122704730517</v>
       </c>
       <c r="AB4" t="n">
-        <v>2726.775015793082</v>
+        <v>3088.294861838395</v>
       </c>
       <c r="AC4" t="n">
-        <v>2466.535435338561</v>
+        <v>2793.552334673483</v>
       </c>
       <c r="AD4" t="n">
-        <v>1992900.96126867</v>
+        <v>2257122.704730517</v>
       </c>
       <c r="AE4" t="n">
-        <v>2726775.015793082</v>
+        <v>3088294.861838395</v>
       </c>
       <c r="AF4" t="n">
         <v>3.025771367083552e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>52</v>
+        <v>51.875</v>
       </c>
       <c r="AH4" t="n">
-        <v>2466535.435338561</v>
+        <v>2793552.334673483</v>
       </c>
     </row>
     <row r="5">
@@ -3245,28 +3245,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1793.043583150249</v>
+        <v>2037.722449490177</v>
       </c>
       <c r="AB5" t="n">
-        <v>2453.321333966214</v>
+        <v>2788.10175336225</v>
       </c>
       <c r="AC5" t="n">
-        <v>2219.179789110596</v>
+        <v>2522.009235146744</v>
       </c>
       <c r="AD5" t="n">
-        <v>1793043.583150249</v>
+        <v>2037722.449490177</v>
       </c>
       <c r="AE5" t="n">
-        <v>2453321.333966214</v>
+        <v>2788101.753362251</v>
       </c>
       <c r="AF5" t="n">
         <v>3.222250027283782e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>49</v>
+        <v>48.7109375</v>
       </c>
       <c r="AH5" t="n">
-        <v>2219179.789110596</v>
+        <v>2522009.235146744</v>
       </c>
     </row>
     <row r="6">
@@ -3351,28 +3351,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1663.413099773893</v>
+        <v>1898.303444843472</v>
       </c>
       <c r="AB6" t="n">
-        <v>2275.955187717376</v>
+        <v>2597.342520472242</v>
       </c>
       <c r="AC6" t="n">
-        <v>2058.741218924798</v>
+        <v>2349.455795711493</v>
       </c>
       <c r="AD6" t="n">
-        <v>1663413.099773893</v>
+        <v>1898303.444843472</v>
       </c>
       <c r="AE6" t="n">
-        <v>2275955.187717376</v>
+        <v>2597342.520472242</v>
       </c>
       <c r="AF6" t="n">
         <v>3.350021425941601e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>47</v>
+        <v>46.84895833333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>2058741.218924798</v>
+        <v>2349455.795711494</v>
       </c>
     </row>
     <row r="7">
@@ -3457,28 +3457,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1567.597917293494</v>
+        <v>1802.454096944292</v>
       </c>
       <c r="AB7" t="n">
-        <v>2144.856627980175</v>
+        <v>2466.197214101792</v>
       </c>
       <c r="AC7" t="n">
-        <v>1940.15452173093</v>
+        <v>2230.826813317446</v>
       </c>
       <c r="AD7" t="n">
-        <v>1567597.917293494</v>
+        <v>1802454.096944292</v>
       </c>
       <c r="AE7" t="n">
-        <v>2144856.627980175</v>
+        <v>2466197.214101792</v>
       </c>
       <c r="AF7" t="n">
         <v>3.442836498551526e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>46</v>
+        <v>45.5859375</v>
       </c>
       <c r="AH7" t="n">
-        <v>1940154.52173093</v>
+        <v>2230826.813317446</v>
       </c>
     </row>
     <row r="8">
@@ -3563,28 +3563,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1480.10217831731</v>
+        <v>1705.204002116541</v>
       </c>
       <c r="AB8" t="n">
-        <v>2025.141097873385</v>
+        <v>2333.135343987079</v>
       </c>
       <c r="AC8" t="n">
-        <v>1831.864473795731</v>
+        <v>2110.464181332973</v>
       </c>
       <c r="AD8" t="n">
-        <v>1480102.17831731</v>
+        <v>1705204.002116541</v>
       </c>
       <c r="AE8" t="n">
-        <v>2025141.097873385</v>
+        <v>2333135.343987079</v>
       </c>
       <c r="AF8" t="n">
         <v>3.519740415856892e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>45</v>
+        <v>44.59635416666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>1831864.473795731</v>
+        <v>2110464.181332973</v>
       </c>
     </row>
     <row r="9">
@@ -3669,28 +3669,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1476.044358143661</v>
+        <v>1701.146181942892</v>
       </c>
       <c r="AB9" t="n">
-        <v>2019.589009293406</v>
+        <v>2327.583255407101</v>
       </c>
       <c r="AC9" t="n">
-        <v>1826.84226875742</v>
+        <v>2105.441976294662</v>
       </c>
       <c r="AD9" t="n">
-        <v>1476044.358143661</v>
+        <v>1701146.181942892</v>
       </c>
       <c r="AE9" t="n">
-        <v>2019589.009293406</v>
+        <v>2327583.255407101</v>
       </c>
       <c r="AF9" t="n">
         <v>3.516847478528791e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>45</v>
+        <v>44.62890625</v>
       </c>
       <c r="AH9" t="n">
-        <v>1826842.26875742</v>
+        <v>2105441.976294662</v>
       </c>
     </row>
     <row r="10">
@@ -3775,28 +3775,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1480.548858397021</v>
+        <v>1705.650682196253</v>
       </c>
       <c r="AB10" t="n">
-        <v>2025.75226526458</v>
+        <v>2333.746511378273</v>
       </c>
       <c r="AC10" t="n">
-        <v>1832.417312228889</v>
+        <v>2111.017019766131</v>
       </c>
       <c r="AD10" t="n">
-        <v>1480548.858397021</v>
+        <v>1705650.682196253</v>
       </c>
       <c r="AE10" t="n">
-        <v>2025752.26526458</v>
+        <v>2333746.511378273</v>
       </c>
       <c r="AF10" t="n">
         <v>3.516847478528791e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>45</v>
+        <v>44.62890625</v>
       </c>
       <c r="AH10" t="n">
-        <v>1832417.312228889</v>
+        <v>2111017.019766131</v>
       </c>
     </row>
   </sheetData>
@@ -4072,28 +4072,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3576.476062112072</v>
+        <v>3973.276081010162</v>
       </c>
       <c r="AB2" t="n">
-        <v>4893.492331170112</v>
+        <v>5436.411622607862</v>
       </c>
       <c r="AC2" t="n">
-        <v>4426.464291142674</v>
+        <v>4917.568127397596</v>
       </c>
       <c r="AD2" t="n">
-        <v>3576476.062112072</v>
+        <v>3973276.081010162</v>
       </c>
       <c r="AE2" t="n">
-        <v>4893492.331170112</v>
+        <v>5436411.622607863</v>
       </c>
       <c r="AF2" t="n">
         <v>2.177007992628167e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>79</v>
+        <v>78.88671875</v>
       </c>
       <c r="AH2" t="n">
-        <v>4426464.291142674</v>
+        <v>4917568.127397596</v>
       </c>
     </row>
     <row r="3">
@@ -4178,28 +4178,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2005.386573252504</v>
+        <v>2276.407784036753</v>
       </c>
       <c r="AB3" t="n">
-        <v>2743.858380935689</v>
+        <v>3114.681558142841</v>
       </c>
       <c r="AC3" t="n">
-        <v>2481.98838808861</v>
+        <v>2817.420721716593</v>
       </c>
       <c r="AD3" t="n">
-        <v>2005386.573252504</v>
+        <v>2276407.784036753</v>
       </c>
       <c r="AE3" t="n">
-        <v>2743858.380935689</v>
+        <v>3114681.558142841</v>
       </c>
       <c r="AF3" t="n">
         <v>3.136653585404281e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>55</v>
+        <v>54.75260416666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>2481988.38808861</v>
+        <v>2817420.721716593</v>
       </c>
     </row>
     <row r="4">
@@ -4284,28 +4284,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1677.765784039063</v>
+        <v>1919.67802756528</v>
       </c>
       <c r="AB4" t="n">
-        <v>2295.593163524723</v>
+        <v>2626.588167532257</v>
       </c>
       <c r="AC4" t="n">
-        <v>2076.504973883163</v>
+        <v>2375.910279262624</v>
       </c>
       <c r="AD4" t="n">
-        <v>1677765.784039063</v>
+        <v>1919678.02756528</v>
       </c>
       <c r="AE4" t="n">
-        <v>2295593.163524724</v>
+        <v>2626588.167532257</v>
       </c>
       <c r="AF4" t="n">
         <v>3.496454736736502e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>50</v>
+        <v>49.11458333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>2076504.973883163</v>
+        <v>2375910.279262624</v>
       </c>
     </row>
     <row r="5">
@@ -4390,28 +4390,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1506.820268107774</v>
+        <v>1739.119282291588</v>
       </c>
       <c r="AB5" t="n">
-        <v>2061.697967043629</v>
+        <v>2379.53972655914</v>
       </c>
       <c r="AC5" t="n">
-        <v>1864.932406680255</v>
+        <v>2152.439794761316</v>
       </c>
       <c r="AD5" t="n">
-        <v>1506820.268107774</v>
+        <v>1739119.282291588</v>
       </c>
       <c r="AE5" t="n">
-        <v>2061697.967043629</v>
+        <v>2379539.72655914</v>
       </c>
       <c r="AF5" t="n">
         <v>3.688753152661128e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>47</v>
+        <v>46.55598958333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>1864932.406680255</v>
+        <v>2152439.794761316</v>
       </c>
     </row>
     <row r="6">
@@ -4496,28 +4496,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1400.654306863502</v>
+        <v>1623.205452089503</v>
       </c>
       <c r="AB6" t="n">
-        <v>1916.437015157566</v>
+        <v>2220.94131031937</v>
       </c>
       <c r="AC6" t="n">
-        <v>1733.534956167172</v>
+        <v>2008.977788773195</v>
       </c>
       <c r="AD6" t="n">
-        <v>1400654.306863502</v>
+        <v>1623205.452089503</v>
       </c>
       <c r="AE6" t="n">
-        <v>1916437.015157566</v>
+        <v>2220941.31031937</v>
       </c>
       <c r="AF6" t="n">
         <v>3.802180201834775e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>46</v>
+        <v>45.16927083333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>1733534.956167172</v>
+        <v>2008977.788773195</v>
       </c>
     </row>
     <row r="7">
@@ -4602,19 +4602,19 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1380.110765423909</v>
+        <v>1612.341448770161</v>
       </c>
       <c r="AB7" t="n">
-        <v>1888.328435442831</v>
+        <v>2206.076701691846</v>
       </c>
       <c r="AC7" t="n">
-        <v>1708.109019849771</v>
+        <v>1995.531837530473</v>
       </c>
       <c r="AD7" t="n">
-        <v>1380110.765423909</v>
+        <v>1612341.448770161</v>
       </c>
       <c r="AE7" t="n">
-        <v>1888328.435442831</v>
+        <v>2206076.701691846</v>
       </c>
       <c r="AF7" t="n">
         <v>3.816160745105015e-06</v>
@@ -4623,7 +4623,7 @@
         <v>45</v>
       </c>
       <c r="AH7" t="n">
-        <v>1708109.019849771</v>
+        <v>1995531.837530473</v>
       </c>
     </row>
   </sheetData>
@@ -4899,28 +4899,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1516.769464531262</v>
+        <v>1778.688787824823</v>
       </c>
       <c r="AB2" t="n">
-        <v>2075.310896517813</v>
+        <v>2433.680469713092</v>
       </c>
       <c r="AC2" t="n">
-        <v>1877.246137271289</v>
+        <v>2201.413421375666</v>
       </c>
       <c r="AD2" t="n">
-        <v>1516769.464531261</v>
+        <v>1778688.787824823</v>
       </c>
       <c r="AE2" t="n">
-        <v>2075310.896517813</v>
+        <v>2433680.469713092</v>
       </c>
       <c r="AF2" t="n">
         <v>4.384715709410881e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>55</v>
+        <v>54.66796875</v>
       </c>
       <c r="AH2" t="n">
-        <v>1877246.137271289</v>
+        <v>2201413.421375666</v>
       </c>
     </row>
     <row r="3">
@@ -5005,28 +5005,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1182.222118164661</v>
+        <v>1416.040830820262</v>
       </c>
       <c r="AB3" t="n">
-        <v>1617.56845803176</v>
+        <v>1937.489536040735</v>
       </c>
       <c r="AC3" t="n">
-        <v>1463.189994668798</v>
+        <v>1752.578254004649</v>
       </c>
       <c r="AD3" t="n">
-        <v>1182222.118164661</v>
+        <v>1416040.830820262</v>
       </c>
       <c r="AE3" t="n">
-        <v>1617568.45803176</v>
+        <v>1937489.536040735</v>
       </c>
       <c r="AF3" t="n">
         <v>5.023148578679373e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>48</v>
+        <v>47.72135416666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>1463189.994668798</v>
+        <v>1752578.254004649</v>
       </c>
     </row>
   </sheetData>
@@ -5302,28 +5302,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2083.550362232841</v>
+        <v>2386.924275506606</v>
       </c>
       <c r="AB2" t="n">
-        <v>2850.805525361583</v>
+        <v>3265.895097415401</v>
       </c>
       <c r="AC2" t="n">
-        <v>2578.728647151758</v>
+        <v>2954.20265303051</v>
       </c>
       <c r="AD2" t="n">
-        <v>2083550.362232841</v>
+        <v>2386924.275506606</v>
       </c>
       <c r="AE2" t="n">
-        <v>2850805.525361584</v>
+        <v>3265895.097415401</v>
       </c>
       <c r="AF2" t="n">
         <v>3.3587444647878e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>62</v>
+        <v>61.80338541666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>2578728.647151758</v>
+        <v>2954202.65303051</v>
       </c>
     </row>
     <row r="3">
@@ -5408,28 +5408,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1388.620018991713</v>
+        <v>1625.650106784904</v>
       </c>
       <c r="AB3" t="n">
-        <v>1899.971171576074</v>
+        <v>2224.286194724171</v>
       </c>
       <c r="AC3" t="n">
-        <v>1718.64058958714</v>
+        <v>2012.003442104977</v>
       </c>
       <c r="AD3" t="n">
-        <v>1388620.018991713</v>
+        <v>1625650.106784904</v>
       </c>
       <c r="AE3" t="n">
-        <v>1899971.171576074</v>
+        <v>2224286.194724171</v>
       </c>
       <c r="AF3" t="n">
         <v>4.267461165437623e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>49</v>
+        <v>48.64583333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>1718640.58958714</v>
+        <v>2012003.442104977</v>
       </c>
     </row>
     <row r="4">
@@ -5514,28 +5514,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1249.438057427952</v>
+        <v>1476.884089866179</v>
       </c>
       <c r="AB4" t="n">
-        <v>1709.536271489751</v>
+        <v>2020.737967282505</v>
       </c>
       <c r="AC4" t="n">
-        <v>1546.380529087995</v>
+        <v>1827.881571808612</v>
       </c>
       <c r="AD4" t="n">
-        <v>1249438.057427952</v>
+        <v>1476884.089866179</v>
       </c>
       <c r="AE4" t="n">
-        <v>1709536.271489751</v>
+        <v>2020737.967282505</v>
       </c>
       <c r="AF4" t="n">
         <v>4.492567828826667e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>47</v>
+        <v>46.20442708333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>1546380.529087995</v>
+        <v>1827881.571808612</v>
       </c>
     </row>
     <row r="5">
@@ -5620,28 +5620,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1254.711848442905</v>
+        <v>1482.157880881132</v>
       </c>
       <c r="AB5" t="n">
-        <v>1716.752105019649</v>
+        <v>2027.953800812403</v>
       </c>
       <c r="AC5" t="n">
-        <v>1552.907693593285</v>
+        <v>1834.408736313902</v>
       </c>
       <c r="AD5" t="n">
-        <v>1254711.848442905</v>
+        <v>1482157.880881132</v>
       </c>
       <c r="AE5" t="n">
-        <v>1716752.105019649</v>
+        <v>2027953.800812403</v>
       </c>
       <c r="AF5" t="n">
         <v>4.492248980861527e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>47</v>
+        <v>46.2109375</v>
       </c>
       <c r="AH5" t="n">
-        <v>1552907.693593285</v>
+        <v>1834408.736313902</v>
       </c>
     </row>
   </sheetData>
@@ -5917,28 +5917,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1172.12088788255</v>
+        <v>1412.51756020789</v>
       </c>
       <c r="AB2" t="n">
-        <v>1603.747509124947</v>
+        <v>1932.668841753158</v>
       </c>
       <c r="AC2" t="n">
-        <v>1450.688097727827</v>
+        <v>1748.217640013992</v>
       </c>
       <c r="AD2" t="n">
-        <v>1172120.88788255</v>
+        <v>1412517.56020789</v>
       </c>
       <c r="AE2" t="n">
-        <v>1603747.509124947</v>
+        <v>1932668.841753158</v>
       </c>
       <c r="AF2" t="n">
         <v>5.458980901707498e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>51</v>
+        <v>50.29296875</v>
       </c>
       <c r="AH2" t="n">
-        <v>1450688.097727827</v>
+        <v>1748217.640013992</v>
       </c>
     </row>
     <row r="3">
@@ -6023,28 +6023,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1151.25005336964</v>
+        <v>1391.714045502685</v>
       </c>
       <c r="AB3" t="n">
-        <v>1575.191112588149</v>
+        <v>1904.204555147202</v>
       </c>
       <c r="AC3" t="n">
-        <v>1424.857083597347</v>
+        <v>1722.469944971831</v>
       </c>
       <c r="AD3" t="n">
-        <v>1151250.05336964</v>
+        <v>1391714.045502685</v>
       </c>
       <c r="AE3" t="n">
-        <v>1575191.112588149</v>
+        <v>1904204.555147202</v>
       </c>
       <c r="AF3" t="n">
         <v>5.51717629486591e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>50</v>
+        <v>49.765625</v>
       </c>
       <c r="AH3" t="n">
-        <v>1424857.083597347</v>
+        <v>1722469.944971831</v>
       </c>
     </row>
   </sheetData>
@@ -6320,28 +6320,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3904.423489949649</v>
+        <v>4312.062844655107</v>
       </c>
       <c r="AB2" t="n">
-        <v>5342.204469956925</v>
+        <v>5899.954618844064</v>
       </c>
       <c r="AC2" t="n">
-        <v>4832.351973175099</v>
+        <v>5336.871230659679</v>
       </c>
       <c r="AD2" t="n">
-        <v>3904423.489949649</v>
+        <v>4312062.844655108</v>
       </c>
       <c r="AE2" t="n">
-        <v>5342204.469956925</v>
+        <v>5899954.618844064</v>
       </c>
       <c r="AF2" t="n">
         <v>2.037154523839799e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>83</v>
+        <v>82.265625</v>
       </c>
       <c r="AH2" t="n">
-        <v>4832351.973175099</v>
+        <v>5336871.230659679</v>
       </c>
     </row>
     <row r="3">
@@ -6426,28 +6426,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2114.975824017463</v>
+        <v>2396.466425445881</v>
       </c>
       <c r="AB3" t="n">
-        <v>2893.803228568831</v>
+        <v>3278.951087932262</v>
       </c>
       <c r="AC3" t="n">
-        <v>2617.622709912562</v>
+        <v>2966.012598136639</v>
       </c>
       <c r="AD3" t="n">
-        <v>2114975.824017463</v>
+        <v>2396466.425445881</v>
       </c>
       <c r="AE3" t="n">
-        <v>2893803.228568831</v>
+        <v>3278951.087932263</v>
       </c>
       <c r="AF3" t="n">
         <v>2.999616081160624e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>56</v>
+        <v>55.86588541666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>2617622.709912562</v>
+        <v>2966012.598136639</v>
       </c>
     </row>
     <row r="4">
@@ -6532,28 +6532,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1751.726584564845</v>
+        <v>2004.09039989678</v>
       </c>
       <c r="AB4" t="n">
-        <v>2396.789593724332</v>
+        <v>2742.084899367253</v>
       </c>
       <c r="AC4" t="n">
-        <v>2168.043358814604</v>
+        <v>2480.384165111969</v>
       </c>
       <c r="AD4" t="n">
-        <v>1751726.584564845</v>
+        <v>2004090.39989678</v>
       </c>
       <c r="AE4" t="n">
-        <v>2396789.593724332</v>
+        <v>2742084.899367253</v>
       </c>
       <c r="AF4" t="n">
         <v>3.364368161054609e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>50</v>
+        <v>49.81119791666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>2168043.358814604</v>
+        <v>2480384.165111969</v>
       </c>
     </row>
     <row r="5">
@@ -6638,28 +6638,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1585.610934966301</v>
+        <v>1818.523738511658</v>
       </c>
       <c r="AB5" t="n">
-        <v>2169.502833438364</v>
+        <v>2488.184406636813</v>
       </c>
       <c r="AC5" t="n">
-        <v>1962.448527931356</v>
+        <v>2250.715579056143</v>
       </c>
       <c r="AD5" t="n">
-        <v>1585610.934966301</v>
+        <v>1818523.738511658</v>
       </c>
       <c r="AE5" t="n">
-        <v>2169502.833438364</v>
+        <v>2488184.406636813</v>
       </c>
       <c r="AF5" t="n">
         <v>3.556654543327584e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>48</v>
+        <v>47.11588541666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>1962448.527931357</v>
+        <v>2250715.579056143</v>
       </c>
     </row>
     <row r="6">
@@ -6744,28 +6744,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1461.171621826294</v>
+        <v>1684.47698189931</v>
       </c>
       <c r="AB6" t="n">
-        <v>1999.239475325166</v>
+        <v>2304.775720514266</v>
       </c>
       <c r="AC6" t="n">
-        <v>1808.434865750359</v>
+        <v>2084.811160521424</v>
       </c>
       <c r="AD6" t="n">
-        <v>1461171.621826294</v>
+        <v>1684476.981899309</v>
       </c>
       <c r="AE6" t="n">
-        <v>1999239.475325166</v>
+        <v>2304775.720514266</v>
       </c>
       <c r="AF6" t="n">
         <v>3.682271349953036e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>46</v>
+        <v>45.51432291666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>1808434.865750358</v>
+        <v>2084811.160521424</v>
       </c>
     </row>
     <row r="7">
@@ -6850,28 +6850,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1405.132550288084</v>
+        <v>1638.044342803584</v>
       </c>
       <c r="AB7" t="n">
-        <v>1922.564345377235</v>
+        <v>2241.244535240031</v>
       </c>
       <c r="AC7" t="n">
-        <v>1739.077502590437</v>
+        <v>2027.343302403183</v>
       </c>
       <c r="AD7" t="n">
-        <v>1405132.550288084</v>
+        <v>1638044.342803584</v>
       </c>
       <c r="AE7" t="n">
-        <v>1922564.345377235</v>
+        <v>2241244.535240031</v>
       </c>
       <c r="AF7" t="n">
         <v>3.72860541797062e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>45</v>
+        <v>44.94791666666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>1739077.502590437</v>
+        <v>2027343.302403183</v>
       </c>
     </row>
     <row r="8">
@@ -6956,28 +6956,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1407.408766463293</v>
+        <v>1640.320558978794</v>
       </c>
       <c r="AB8" t="n">
-        <v>1925.678764767728</v>
+        <v>2244.358954630523</v>
       </c>
       <c r="AC8" t="n">
-        <v>1741.894686165416</v>
+        <v>2030.160485978162</v>
       </c>
       <c r="AD8" t="n">
-        <v>1407408.766463293</v>
+        <v>1640320.558978794</v>
       </c>
       <c r="AE8" t="n">
-        <v>1925678.764767728</v>
+        <v>2244358.954630523</v>
       </c>
       <c r="AF8" t="n">
         <v>3.732724001794405e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>45</v>
+        <v>44.89583333333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>1741894.686165416</v>
+        <v>2030160.485978162</v>
       </c>
     </row>
   </sheetData>
@@ -7253,28 +7253,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1139.807158102981</v>
+        <v>1387.855823069889</v>
       </c>
       <c r="AB2" t="n">
-        <v>1559.534438459395</v>
+        <v>1898.925565001889</v>
       </c>
       <c r="AC2" t="n">
-        <v>1410.694660473162</v>
+        <v>1717.694774236877</v>
       </c>
       <c r="AD2" t="n">
-        <v>1139807.158102981</v>
+        <v>1387855.823069889</v>
       </c>
       <c r="AE2" t="n">
-        <v>1559534.438459395</v>
+        <v>1898925.565001889</v>
       </c>
       <c r="AF2" t="n">
         <v>5.815323185326361e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>52</v>
+        <v>51.65364583333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>1410694.660473162</v>
+        <v>1717694.774236877</v>
       </c>
     </row>
   </sheetData>
@@ -7550,28 +7550,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2752.684948961692</v>
+        <v>3097.800594333481</v>
       </c>
       <c r="AB2" t="n">
-        <v>3766.344987058754</v>
+        <v>4238.547438484179</v>
       </c>
       <c r="AC2" t="n">
-        <v>3406.890307592113</v>
+        <v>3834.026419793781</v>
       </c>
       <c r="AD2" t="n">
-        <v>2752684.948961692</v>
+        <v>3097800.594333481</v>
       </c>
       <c r="AE2" t="n">
-        <v>3766344.987058754</v>
+        <v>4238547.438484179</v>
       </c>
       <c r="AF2" t="n">
         <v>2.677258727130541e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>70</v>
+        <v>69.75260416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>3406890.307592114</v>
+        <v>3834026.419793781</v>
       </c>
     </row>
     <row r="3">
@@ -7656,28 +7656,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1693.378847324611</v>
+        <v>1952.198498644062</v>
       </c>
       <c r="AB3" t="n">
-        <v>2316.955645511749</v>
+        <v>2671.084110764173</v>
       </c>
       <c r="AC3" t="n">
-        <v>2095.82865057178</v>
+        <v>2416.159592122935</v>
       </c>
       <c r="AD3" t="n">
-        <v>1693378.847324611</v>
+        <v>1952198.498644062</v>
       </c>
       <c r="AE3" t="n">
-        <v>2316955.645511749</v>
+        <v>2671084.110764173</v>
       </c>
       <c r="AF3" t="n">
         <v>3.617196251108127e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>52</v>
+        <v>51.62109375</v>
       </c>
       <c r="AH3" t="n">
-        <v>2095828.65057178</v>
+        <v>2416159.592122935</v>
       </c>
     </row>
     <row r="4">
@@ -7762,28 +7762,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1436.03442283504</v>
+        <v>1666.055588414788</v>
       </c>
       <c r="AB4" t="n">
-        <v>1964.845650690382</v>
+        <v>2279.570757254221</v>
       </c>
       <c r="AC4" t="n">
-        <v>1777.323539466682</v>
+        <v>2062.01172357953</v>
       </c>
       <c r="AD4" t="n">
-        <v>1436034.42283504</v>
+        <v>1666055.588414788</v>
       </c>
       <c r="AE4" t="n">
-        <v>1964845.650690382</v>
+        <v>2279570.757254221</v>
       </c>
       <c r="AF4" t="n">
         <v>3.961103816335203e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>48</v>
+        <v>47.14192708333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>1777323.539466682</v>
+        <v>2062011.723579529</v>
       </c>
     </row>
     <row r="5">
@@ -7868,28 +7868,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1315.213245059808</v>
+        <v>1535.645966855963</v>
       </c>
       <c r="AB5" t="n">
-        <v>1799.532785004136</v>
+        <v>2101.138559770978</v>
       </c>
       <c r="AC5" t="n">
-        <v>1627.787901663467</v>
+        <v>1900.608844592925</v>
       </c>
       <c r="AD5" t="n">
-        <v>1315213.245059808</v>
+        <v>1535645.966855963</v>
       </c>
       <c r="AE5" t="n">
-        <v>1799532.785004136</v>
+        <v>2101138.559770978</v>
       </c>
       <c r="AF5" t="n">
         <v>4.10681277641473e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>46</v>
+        <v>45.46875</v>
       </c>
       <c r="AH5" t="n">
-        <v>1627787.901663467</v>
+        <v>1900608.844592925</v>
       </c>
     </row>
     <row r="6">
@@ -7974,28 +7974,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1319.620200497739</v>
+        <v>1540.052922293894</v>
       </c>
       <c r="AB6" t="n">
-        <v>1805.562575855466</v>
+        <v>2107.168350622308</v>
       </c>
       <c r="AC6" t="n">
-        <v>1633.242217738811</v>
+        <v>1906.063160668269</v>
       </c>
       <c r="AD6" t="n">
-        <v>1319620.200497739</v>
+        <v>1540052.922293894</v>
       </c>
       <c r="AE6" t="n">
-        <v>1805562.575855466</v>
+        <v>2107168.350622308</v>
       </c>
       <c r="AF6" t="n">
         <v>4.109107405707321e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>46</v>
+        <v>45.44270833333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>1633242.217738811</v>
+        <v>1906063.160668269</v>
       </c>
     </row>
   </sheetData>
@@ -8271,28 +8271,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3282.296229696569</v>
+        <v>3658.620425762776</v>
       </c>
       <c r="AB2" t="n">
-        <v>4490.982506160954</v>
+        <v>5005.88587347057</v>
       </c>
       <c r="AC2" t="n">
-        <v>4062.369438906318</v>
+        <v>4528.131151511299</v>
       </c>
       <c r="AD2" t="n">
-        <v>3282296.229696569</v>
+        <v>3658620.425762775</v>
       </c>
       <c r="AE2" t="n">
-        <v>4490982.506160954</v>
+        <v>5005885.87347057</v>
       </c>
       <c r="AF2" t="n">
         <v>2.328914297548773e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>76</v>
+        <v>75.69010416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>4062369.438906318</v>
+        <v>4528131.151511299</v>
       </c>
     </row>
     <row r="3">
@@ -8377,28 +8377,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1901.811330219209</v>
+        <v>2171.973531517686</v>
       </c>
       <c r="AB3" t="n">
-        <v>2602.142164000306</v>
+        <v>2971.790006532022</v>
       </c>
       <c r="AC3" t="n">
-        <v>2353.797367997581</v>
+        <v>2688.166539242076</v>
       </c>
       <c r="AD3" t="n">
-        <v>1901811.330219209</v>
+        <v>2171973.531517686</v>
       </c>
       <c r="AE3" t="n">
-        <v>2602142.164000306</v>
+        <v>2971790.006532022</v>
       </c>
       <c r="AF3" t="n">
         <v>3.280569000627585e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>54</v>
+        <v>53.73046875</v>
       </c>
       <c r="AH3" t="n">
-        <v>2353797.367997581</v>
+        <v>2688166.539242076</v>
       </c>
     </row>
     <row r="4">
@@ -8483,28 +8483,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1594.061437270416</v>
+        <v>1835.203047460899</v>
       </c>
       <c r="AB4" t="n">
-        <v>2181.065183500704</v>
+        <v>2511.005772980342</v>
       </c>
       <c r="AC4" t="n">
-        <v>1972.907383531607</v>
+        <v>2271.358906225834</v>
       </c>
       <c r="AD4" t="n">
-        <v>1594061.437270416</v>
+        <v>1835203.047460899</v>
       </c>
       <c r="AE4" t="n">
-        <v>2181065.183500704</v>
+        <v>2511005.772980342</v>
       </c>
       <c r="AF4" t="n">
         <v>3.637947153704122e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>49</v>
+        <v>48.45052083333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>1972907.383531607</v>
+        <v>2271358.906225834</v>
       </c>
     </row>
     <row r="5">
@@ -8589,28 +8589,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1438.666682151105</v>
+        <v>1660.57444231229</v>
       </c>
       <c r="AB5" t="n">
-        <v>1968.447224013707</v>
+        <v>2272.071211345682</v>
       </c>
       <c r="AC5" t="n">
-        <v>1780.581383686869</v>
+        <v>2055.227923806823</v>
       </c>
       <c r="AD5" t="n">
-        <v>1438666.682151105</v>
+        <v>1660574.44231229</v>
       </c>
       <c r="AE5" t="n">
-        <v>1968447.224013707</v>
+        <v>2272071.211345682</v>
       </c>
       <c r="AF5" t="n">
         <v>3.828278094319884e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>47</v>
+        <v>46.04166666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>1780581.383686869</v>
+        <v>2055227.923806823</v>
       </c>
     </row>
     <row r="6">
@@ -8695,28 +8695,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1364.866183814267</v>
+        <v>1586.739778556671</v>
       </c>
       <c r="AB6" t="n">
-        <v>1867.470126341045</v>
+        <v>2171.047367039773</v>
       </c>
       <c r="AC6" t="n">
-        <v>1689.241398493839</v>
+        <v>1963.845653413613</v>
       </c>
       <c r="AD6" t="n">
-        <v>1364866.183814267</v>
+        <v>1586739.778556671</v>
       </c>
       <c r="AE6" t="n">
-        <v>1867470.126341044</v>
+        <v>2171047.367039773</v>
       </c>
       <c r="AF6" t="n">
         <v>3.904627063386235e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>46</v>
+        <v>45.14322916666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>1689241.398493839</v>
+        <v>1963845.653413613</v>
       </c>
     </row>
     <row r="7">
@@ -8801,28 +8801,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1369.615785985926</v>
+        <v>1591.489380728329</v>
       </c>
       <c r="AB7" t="n">
-        <v>1873.968741569968</v>
+        <v>2177.545982268695</v>
       </c>
       <c r="AC7" t="n">
-        <v>1695.119795006177</v>
+        <v>1969.724049925951</v>
       </c>
       <c r="AD7" t="n">
-        <v>1369615.785985926</v>
+        <v>1591489.38072833</v>
       </c>
       <c r="AE7" t="n">
-        <v>1873968.741569967</v>
+        <v>2177545.982268695</v>
       </c>
       <c r="AF7" t="n">
         <v>3.903544099286004e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>46</v>
+        <v>45.15625</v>
       </c>
       <c r="AH7" t="n">
-        <v>1695119.795006177</v>
+        <v>1969724.049925951</v>
       </c>
     </row>
   </sheetData>
@@ -9098,28 +9098,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4639.996081380602</v>
+        <v>5089.018159474516</v>
       </c>
       <c r="AB2" t="n">
-        <v>6348.647340725258</v>
+        <v>6963.01915742939</v>
       </c>
       <c r="AC2" t="n">
-        <v>5742.741348908706</v>
+        <v>6298.478381702833</v>
       </c>
       <c r="AD2" t="n">
-        <v>4639996.081380602</v>
+        <v>5089018.159474516</v>
       </c>
       <c r="AE2" t="n">
-        <v>6348647.340725258</v>
+        <v>6963019.157429391</v>
       </c>
       <c r="AF2" t="n">
         <v>1.785832154515191e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>90</v>
+        <v>89.72005208333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>5742741.348908706</v>
+        <v>6298478.381702833</v>
       </c>
     </row>
     <row r="3">
@@ -9204,28 +9204,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2347.692079234915</v>
+        <v>2640.441477892785</v>
       </c>
       <c r="AB3" t="n">
-        <v>3212.215875674125</v>
+        <v>3612.768518109805</v>
       </c>
       <c r="AC3" t="n">
-        <v>2905.646500872961</v>
+        <v>3267.97096129373</v>
       </c>
       <c r="AD3" t="n">
-        <v>2347692.079234915</v>
+        <v>2640441.477892785</v>
       </c>
       <c r="AE3" t="n">
-        <v>3212215.875674125</v>
+        <v>3612768.518109805</v>
       </c>
       <c r="AF3" t="n">
         <v>2.758490461384544e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>59</v>
+        <v>58.0859375</v>
       </c>
       <c r="AH3" t="n">
-        <v>2905646.500872961</v>
+        <v>3267970.96129373</v>
       </c>
     </row>
     <row r="4">
@@ -9310,28 +9310,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1920.846571056008</v>
+        <v>2174.578795225574</v>
       </c>
       <c r="AB4" t="n">
-        <v>2628.18702028877</v>
+        <v>2975.354643273276</v>
       </c>
       <c r="AC4" t="n">
-        <v>2377.35653975606</v>
+        <v>2691.390972055744</v>
       </c>
       <c r="AD4" t="n">
-        <v>1920846.571056008</v>
+        <v>2174578.795225574</v>
       </c>
       <c r="AE4" t="n">
-        <v>2628187.02028877</v>
+        <v>2975354.643273276</v>
       </c>
       <c r="AF4" t="n">
         <v>3.128405804305759e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>52</v>
+        <v>51.21744791666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>2377356.53975606</v>
+        <v>2691390.972055743</v>
       </c>
     </row>
     <row r="5">
@@ -9416,28 +9416,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1723.498943274741</v>
+        <v>1957.739662909545</v>
       </c>
       <c r="AB5" t="n">
-        <v>2358.167289595568</v>
+        <v>2678.665776171122</v>
       </c>
       <c r="AC5" t="n">
-        <v>2133.107113185144</v>
+        <v>2423.017674024378</v>
       </c>
       <c r="AD5" t="n">
-        <v>1723498.943274741</v>
+        <v>1957739.662909545</v>
       </c>
       <c r="AE5" t="n">
-        <v>2358167.289595568</v>
+        <v>2678665.776171122</v>
       </c>
       <c r="AF5" t="n">
         <v>3.330714794246702e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>49</v>
+        <v>48.11197916666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>2133107.113185144</v>
+        <v>2423017.674024378</v>
       </c>
     </row>
     <row r="6">
@@ -9522,28 +9522,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1600.087044764228</v>
+        <v>1834.259433561471</v>
       </c>
       <c r="AB6" t="n">
-        <v>2189.309685504779</v>
+        <v>2509.714678813838</v>
       </c>
       <c r="AC6" t="n">
-        <v>1980.365041835644</v>
+        <v>2270.191032274519</v>
       </c>
       <c r="AD6" t="n">
-        <v>1600087.044764228</v>
+        <v>1834259.433561471</v>
       </c>
       <c r="AE6" t="n">
-        <v>2189309.685504779</v>
+        <v>2509714.678813837</v>
       </c>
       <c r="AF6" t="n">
         <v>3.453527672568516e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>47</v>
+        <v>46.39973958333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>1980365.041835645</v>
+        <v>2270191.032274519</v>
       </c>
     </row>
     <row r="7">
@@ -9628,28 +9628,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1504.889205535181</v>
+        <v>1729.332924774433</v>
       </c>
       <c r="AB7" t="n">
-        <v>2059.05580203934</v>
+        <v>2366.149600460546</v>
       </c>
       <c r="AC7" t="n">
-        <v>1862.542406195673</v>
+        <v>2140.327603504412</v>
       </c>
       <c r="AD7" t="n">
-        <v>1504889.205535181</v>
+        <v>1729332.924774433</v>
       </c>
       <c r="AE7" t="n">
-        <v>2059055.802039339</v>
+        <v>2366149.600460546</v>
       </c>
       <c r="AF7" t="n">
         <v>3.54311462188543e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>46</v>
+        <v>45.22135416666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>1862542.406195673</v>
+        <v>2140327.603504412</v>
       </c>
     </row>
     <row r="8">
@@ -9734,28 +9734,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1455.04214730893</v>
+        <v>1679.553186355887</v>
       </c>
       <c r="AB8" t="n">
-        <v>1990.852857877178</v>
+        <v>2298.038766229226</v>
       </c>
       <c r="AC8" t="n">
-        <v>1800.848655300915</v>
+        <v>2078.717171697974</v>
       </c>
       <c r="AD8" t="n">
-        <v>1455042.14730893</v>
+        <v>1679553.186355887</v>
       </c>
       <c r="AE8" t="n">
-        <v>1990852.857877178</v>
+        <v>2298038.766229226</v>
       </c>
       <c r="AF8" t="n">
         <v>3.577817258846103e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>45</v>
+        <v>44.78515625</v>
       </c>
       <c r="AH8" t="n">
-        <v>1800848.655300915</v>
+        <v>2078717.171697974</v>
       </c>
     </row>
     <row r="9">
@@ -9840,28 +9840,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1459.906841313003</v>
+        <v>1684.417880359959</v>
       </c>
       <c r="AB9" t="n">
-        <v>1997.508946828703</v>
+        <v>2304.694855180751</v>
       </c>
       <c r="AC9" t="n">
-        <v>1806.869496464786</v>
+        <v>2084.738012861845</v>
       </c>
       <c r="AD9" t="n">
-        <v>1459906.841313003</v>
+        <v>1684417.880359959</v>
       </c>
       <c r="AE9" t="n">
-        <v>1997508.946828703</v>
+        <v>2304694.855180751</v>
       </c>
       <c r="AF9" t="n">
         <v>3.57634055089033e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>45</v>
+        <v>44.8046875</v>
       </c>
       <c r="AH9" t="n">
-        <v>1806869.496464786</v>
+        <v>2084738.012861845</v>
       </c>
     </row>
   </sheetData>
@@ -10137,28 +10137,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2298.481740480491</v>
+        <v>2612.497575479025</v>
       </c>
       <c r="AB2" t="n">
-        <v>3144.884119183394</v>
+        <v>3574.534438029329</v>
       </c>
       <c r="AC2" t="n">
-        <v>2844.740792720994</v>
+        <v>3233.385888154268</v>
       </c>
       <c r="AD2" t="n">
-        <v>2298481.740480491</v>
+        <v>2612497.575479025</v>
       </c>
       <c r="AE2" t="n">
-        <v>3144884.119183394</v>
+        <v>3574534.438029329</v>
       </c>
       <c r="AF2" t="n">
         <v>3.103202481919977e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>65</v>
+        <v>64.36848958333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>2844740.792720994</v>
+        <v>3233385.888154268</v>
       </c>
     </row>
     <row r="3">
@@ -10243,28 +10243,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1489.253118125258</v>
+        <v>1736.698079007054</v>
       </c>
       <c r="AB3" t="n">
-        <v>2037.661817429591</v>
+        <v>2376.22692940929</v>
       </c>
       <c r="AC3" t="n">
-        <v>1843.190233450432</v>
+        <v>2149.443166321908</v>
       </c>
       <c r="AD3" t="n">
-        <v>1489253.118125258</v>
+        <v>1736698.079007054</v>
       </c>
       <c r="AE3" t="n">
-        <v>2037661.817429591</v>
+        <v>2376226.92940929</v>
       </c>
       <c r="AF3" t="n">
         <v>4.027044945145312e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>50</v>
+        <v>49.60286458333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>1843190.233450432</v>
+        <v>2149443.166321908</v>
       </c>
     </row>
     <row r="4">
@@ -10349,28 +10349,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1281.079486964936</v>
+        <v>1499.966232908971</v>
       </c>
       <c r="AB4" t="n">
-        <v>1752.829471303604</v>
+        <v>2052.319973705934</v>
       </c>
       <c r="AC4" t="n">
-        <v>1585.541886674001</v>
+        <v>1856.449435864614</v>
       </c>
       <c r="AD4" t="n">
-        <v>1281079.486964936</v>
+        <v>1499966.232908971</v>
       </c>
       <c r="AE4" t="n">
-        <v>1752829.471303604</v>
+        <v>2052319.973705935</v>
       </c>
       <c r="AF4" t="n">
         <v>4.340310689068616e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>47</v>
+        <v>46.02213541666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>1585541.886674001</v>
+        <v>1856449.435864614</v>
       </c>
     </row>
     <row r="5">
@@ -10455,28 +10455,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1267.629191272393</v>
+        <v>1496.034668175777</v>
       </c>
       <c r="AB5" t="n">
-        <v>1734.4261833519</v>
+        <v>2046.940633389585</v>
       </c>
       <c r="AC5" t="n">
-        <v>1568.894982695231</v>
+        <v>1851.583492238104</v>
       </c>
       <c r="AD5" t="n">
-        <v>1267629.191272393</v>
+        <v>1496034.668175777</v>
       </c>
       <c r="AE5" t="n">
-        <v>1734426.1833519</v>
+        <v>2046940.633389585</v>
       </c>
       <c r="AF5" t="n">
         <v>4.352890410421071e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>46</v>
+        <v>45.89192708333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>1568894.982695231</v>
+        <v>1851583.492238104</v>
       </c>
     </row>
   </sheetData>
@@ -10752,28 +10752,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1705.909495448301</v>
+        <v>1978.435077912573</v>
       </c>
       <c r="AB2" t="n">
-        <v>2334.100631087762</v>
+        <v>2706.982155995538</v>
       </c>
       <c r="AC2" t="n">
-        <v>2111.337342787555</v>
+        <v>2448.63157830064</v>
       </c>
       <c r="AD2" t="n">
-        <v>1705909.495448301</v>
+        <v>1978435.077912573</v>
       </c>
       <c r="AE2" t="n">
-        <v>2334100.631087762</v>
+        <v>2706982.155995538</v>
       </c>
       <c r="AF2" t="n">
         <v>3.984191024401026e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>58</v>
+        <v>57.00520833333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>2111337.342787555</v>
+        <v>2448631.57830064</v>
       </c>
     </row>
     <row r="3">
@@ -10858,28 +10858,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1210.024307943291</v>
+        <v>1435.545223564329</v>
       </c>
       <c r="AB3" t="n">
-        <v>1655.60864063293</v>
+        <v>1964.176306666246</v>
       </c>
       <c r="AC3" t="n">
-        <v>1497.599675632244</v>
+        <v>1776.718076696779</v>
       </c>
       <c r="AD3" t="n">
-        <v>1210024.307943291</v>
+        <v>1435545.22356433</v>
       </c>
       <c r="AE3" t="n">
-        <v>1655608.64063293</v>
+        <v>1964176.306666246</v>
       </c>
       <c r="AF3" t="n">
         <v>4.816265944996162e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>48</v>
+        <v>47.16145833333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>1497599.675632244</v>
+        <v>1776718.076696779</v>
       </c>
     </row>
     <row r="4">
@@ -10964,28 +10964,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1211.932423327743</v>
+        <v>1437.453338948782</v>
       </c>
       <c r="AB4" t="n">
-        <v>1658.219408282047</v>
+        <v>1966.787074315363</v>
       </c>
       <c r="AC4" t="n">
-        <v>1499.961275281164</v>
+        <v>1779.0796763457</v>
       </c>
       <c r="AD4" t="n">
-        <v>1211932.423327744</v>
+        <v>1437453.338948782</v>
       </c>
       <c r="AE4" t="n">
-        <v>1658219.408282047</v>
+        <v>1966787.074315364</v>
       </c>
       <c r="AF4" t="n">
         <v>4.822894634091049e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>48</v>
+        <v>47.09635416666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>1499961.275281164</v>
+        <v>1779079.6763457</v>
       </c>
     </row>
   </sheetData>
@@ -19362,28 +19362,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1338.43200270556</v>
+        <v>1589.557472336906</v>
       </c>
       <c r="AB2" t="n">
-        <v>1831.301713554346</v>
+        <v>2174.902659977766</v>
       </c>
       <c r="AC2" t="n">
-        <v>1656.524848260816</v>
+        <v>1967.333002604542</v>
       </c>
       <c r="AD2" t="n">
-        <v>1338432.00270556</v>
+        <v>1589557.472336906</v>
       </c>
       <c r="AE2" t="n">
-        <v>1831301.713554346</v>
+        <v>2174902.659977766</v>
       </c>
       <c r="AF2" t="n">
         <v>4.876017317918916e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>53</v>
+        <v>52.31119791666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>1656524.848260816</v>
+        <v>1967333.002604542</v>
       </c>
     </row>
     <row r="3">
@@ -19468,28 +19468,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1167.375502010935</v>
+        <v>1399.990522033462</v>
       </c>
       <c r="AB3" t="n">
-        <v>1597.254662823754</v>
+        <v>1915.528795468985</v>
       </c>
       <c r="AC3" t="n">
-        <v>1444.814919564853</v>
+        <v>1732.713415690974</v>
       </c>
       <c r="AD3" t="n">
-        <v>1167375.502010935</v>
+        <v>1399990.522033462</v>
       </c>
       <c r="AE3" t="n">
-        <v>1597254.662823754</v>
+        <v>1915528.795468985</v>
       </c>
       <c r="AF3" t="n">
         <v>5.250191406999878e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>49</v>
+        <v>48.58723958333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>1444814.919564853</v>
+        <v>1732713.415690974</v>
       </c>
     </row>
   </sheetData>
@@ -19765,28 +19765,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1146.056461484497</v>
+        <v>1410.367713341634</v>
       </c>
       <c r="AB2" t="n">
-        <v>1568.085011045794</v>
+        <v>1929.727326426197</v>
       </c>
       <c r="AC2" t="n">
-        <v>1418.429178412718</v>
+        <v>1745.556858781393</v>
       </c>
       <c r="AD2" t="n">
-        <v>1146056.461484497</v>
+        <v>1410367.713341634</v>
       </c>
       <c r="AE2" t="n">
-        <v>1568085.011045794</v>
+        <v>1929727.326426197</v>
       </c>
       <c r="AF2" t="n">
         <v>6.148426015063522e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>55</v>
+        <v>54.86979166666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>1418429.178412718</v>
+        <v>1745556.858781393</v>
       </c>
     </row>
   </sheetData>
@@ -20062,28 +20062,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3007.841544419254</v>
+        <v>3373.315585467166</v>
       </c>
       <c r="AB2" t="n">
-        <v>4115.461497678342</v>
+        <v>4615.519204216869</v>
       </c>
       <c r="AC2" t="n">
-        <v>3722.687628426256</v>
+        <v>4175.020529288126</v>
       </c>
       <c r="AD2" t="n">
-        <v>3007841.544419254</v>
+        <v>3373315.585467166</v>
       </c>
       <c r="AE2" t="n">
-        <v>4115461.497678342</v>
+        <v>4615519.20421687</v>
       </c>
       <c r="AF2" t="n">
         <v>2.495132833305684e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>73</v>
+        <v>72.63020833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>3722687.628426256</v>
+        <v>4175020.529288126</v>
       </c>
     </row>
     <row r="3">
@@ -20168,28 +20168,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1796.870296374481</v>
+        <v>2056.587881145565</v>
       </c>
       <c r="AB3" t="n">
-        <v>2458.557211822282</v>
+        <v>2813.914269237257</v>
       </c>
       <c r="AC3" t="n">
-        <v>2223.915962132682</v>
+        <v>2545.358240734734</v>
       </c>
       <c r="AD3" t="n">
-        <v>1796870.296374481</v>
+        <v>2056587.881145565</v>
       </c>
       <c r="AE3" t="n">
-        <v>2458557.211822282</v>
+        <v>2813914.269237258</v>
       </c>
       <c r="AF3" t="n">
         <v>3.441072961340127e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>53</v>
+        <v>52.66927083333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>2223915.962132682</v>
+        <v>2545358.240734735</v>
       </c>
     </row>
     <row r="4">
@@ -20274,28 +20274,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1511.208273701466</v>
+        <v>1751.650822669334</v>
       </c>
       <c r="AB4" t="n">
-        <v>2067.701829882063</v>
+        <v>2396.685932956515</v>
       </c>
       <c r="AC4" t="n">
-        <v>1870.363269275863</v>
+        <v>2167.949591284978</v>
       </c>
       <c r="AD4" t="n">
-        <v>1511208.273701466</v>
+        <v>1751650.822669334</v>
       </c>
       <c r="AE4" t="n">
-        <v>2067701.829882063</v>
+        <v>2396685.932956515</v>
       </c>
       <c r="AF4" t="n">
         <v>3.790441666661853e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>48</v>
+        <v>47.8125</v>
       </c>
       <c r="AH4" t="n">
-        <v>1870363.269275863</v>
+        <v>2167949.591284978</v>
       </c>
     </row>
     <row r="5">
@@ -20380,28 +20380,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1360.934648040267</v>
+        <v>1591.756761815919</v>
       </c>
       <c r="AB5" t="n">
-        <v>1862.090825647941</v>
+        <v>2177.911824868756</v>
       </c>
       <c r="AC5" t="n">
-        <v>1684.375490708989</v>
+        <v>1970.054977021725</v>
       </c>
       <c r="AD5" t="n">
-        <v>1360934.648040267</v>
+        <v>1591756.761815919</v>
       </c>
       <c r="AE5" t="n">
-        <v>1862090.825647941</v>
+        <v>2177911.824868755</v>
       </c>
       <c r="AF5" t="n">
         <v>3.976678849020607e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>46</v>
+        <v>45.57291666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>1684375.490708989</v>
+        <v>1970054.977021725</v>
       </c>
     </row>
     <row r="6">
@@ -20486,28 +20486,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1342.253475165985</v>
+        <v>1563.421999360495</v>
       </c>
       <c r="AB6" t="n">
-        <v>1836.530420766166</v>
+        <v>2139.142952835749</v>
       </c>
       <c r="AC6" t="n">
-        <v>1661.254534994877</v>
+        <v>1934.986151723095</v>
       </c>
       <c r="AD6" t="n">
-        <v>1342253.475165985</v>
+        <v>1563421.999360495</v>
       </c>
       <c r="AE6" t="n">
-        <v>1836530.420766166</v>
+        <v>2139142.952835749</v>
       </c>
       <c r="AF6" t="n">
         <v>4.00173317848591e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>46</v>
+        <v>45.29296875</v>
       </c>
       <c r="AH6" t="n">
-        <v>1661254.534994877</v>
+        <v>1934986.151723095</v>
       </c>
     </row>
   </sheetData>
@@ -20783,28 +20783,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4253.242310235171</v>
+        <v>4691.240444243244</v>
       </c>
       <c r="AB2" t="n">
-        <v>5819.473768671868</v>
+        <v>6418.762138735665</v>
       </c>
       <c r="AC2" t="n">
-        <v>5264.071359872338</v>
+        <v>5806.164489003733</v>
       </c>
       <c r="AD2" t="n">
-        <v>4253242.310235172</v>
+        <v>4691240.444243245</v>
       </c>
       <c r="AE2" t="n">
-        <v>5819473.768671868</v>
+        <v>6418762.138735665</v>
       </c>
       <c r="AF2" t="n">
         <v>1.906456034294347e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>86</v>
+        <v>85.90494791666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>5264071.359872337</v>
+        <v>5806164.489003733</v>
       </c>
     </row>
     <row r="3">
@@ -20889,28 +20889,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2223.873114924053</v>
+        <v>2515.860482456509</v>
       </c>
       <c r="AB3" t="n">
-        <v>3042.801306196812</v>
+        <v>3442.311304028261</v>
       </c>
       <c r="AC3" t="n">
-        <v>2752.400620131729</v>
+        <v>3113.781944485932</v>
       </c>
       <c r="AD3" t="n">
-        <v>2223873.114924053</v>
+        <v>2515860.482456509</v>
       </c>
       <c r="AE3" t="n">
-        <v>3042801.306196812</v>
+        <v>3442311.304028261</v>
       </c>
       <c r="AF3" t="n">
         <v>2.875405584908126e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>57</v>
+        <v>56.953125</v>
       </c>
       <c r="AH3" t="n">
-        <v>2752400.620131729</v>
+        <v>3113781.944485933</v>
       </c>
     </row>
     <row r="4">
@@ -20995,28 +20995,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1837.008400527262</v>
+        <v>2090.118783725439</v>
       </c>
       <c r="AB4" t="n">
-        <v>2513.475936692297</v>
+        <v>2859.792729426061</v>
       </c>
       <c r="AC4" t="n">
-        <v>2273.593320980016</v>
+        <v>2586.858125073942</v>
       </c>
       <c r="AD4" t="n">
-        <v>1837008.400527262</v>
+        <v>2090118.783725439</v>
       </c>
       <c r="AE4" t="n">
-        <v>2513475.936692297</v>
+        <v>2859792.729426061</v>
       </c>
       <c r="AF4" t="n">
         <v>3.240899794939751e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>51</v>
+        <v>50.52734375</v>
       </c>
       <c r="AH4" t="n">
-        <v>2273593.320980016</v>
+        <v>2586858.125073942</v>
       </c>
     </row>
     <row r="5">
@@ -21101,28 +21101,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1653.929066612101</v>
+        <v>1897.268955598538</v>
       </c>
       <c r="AB5" t="n">
-        <v>2262.978715139399</v>
+        <v>2595.927086648878</v>
       </c>
       <c r="AC5" t="n">
-        <v>2047.00320267707</v>
+        <v>2348.175448905657</v>
       </c>
       <c r="AD5" t="n">
-        <v>1653929.066612101</v>
+        <v>1897268.955598538</v>
       </c>
       <c r="AE5" t="n">
-        <v>2262978.715139399</v>
+        <v>2595927.086648878</v>
       </c>
       <c r="AF5" t="n">
         <v>3.43458908724832e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>48</v>
+        <v>47.68229166666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>2047003.202677069</v>
+        <v>2348175.448905657</v>
       </c>
     </row>
     <row r="6">
@@ -21207,28 +21207,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1527.297611478262</v>
+        <v>1760.901171671739</v>
       </c>
       <c r="AB6" t="n">
-        <v>2089.715971639762</v>
+        <v>2409.342668558201</v>
       </c>
       <c r="AC6" t="n">
-        <v>1890.27641224125</v>
+        <v>2179.398385804679</v>
       </c>
       <c r="AD6" t="n">
-        <v>1527297.611478262</v>
+        <v>1760901.171671739</v>
       </c>
       <c r="AE6" t="n">
-        <v>2089715.971639762</v>
+        <v>2409342.668558201</v>
       </c>
       <c r="AF6" t="n">
         <v>3.562122166729417e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>46</v>
+        <v>45.9765625</v>
       </c>
       <c r="AH6" t="n">
-        <v>1890276.41224125</v>
+        <v>2179398.385804679</v>
       </c>
     </row>
     <row r="7">
@@ -21313,28 +21313,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1435.648174921272</v>
+        <v>1669.217569695968</v>
       </c>
       <c r="AB7" t="n">
-        <v>1964.317169254708</v>
+        <v>2283.8971195399</v>
       </c>
       <c r="AC7" t="n">
-        <v>1776.845495557501</v>
+        <v>2065.92518392075</v>
       </c>
       <c r="AD7" t="n">
-        <v>1435648.174921272</v>
+        <v>1669217.569695968</v>
       </c>
       <c r="AE7" t="n">
-        <v>1964317.169254709</v>
+        <v>2283897.1195399</v>
       </c>
       <c r="AF7" t="n">
         <v>3.648150397858678e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>45</v>
+        <v>44.88932291666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>1776845.495557501</v>
+        <v>2065925.183920751</v>
       </c>
     </row>
     <row r="8">
@@ -21419,28 +21419,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1431.049039808796</v>
+        <v>1654.950436628093</v>
       </c>
       <c r="AB8" t="n">
-        <v>1958.024429694297</v>
+        <v>2264.376198654945</v>
       </c>
       <c r="AC8" t="n">
-        <v>1771.15332622882</v>
+        <v>2048.267312327272</v>
       </c>
       <c r="AD8" t="n">
-        <v>1431049.039808796</v>
+        <v>1654950.436628093</v>
       </c>
       <c r="AE8" t="n">
-        <v>1958024.429694297</v>
+        <v>2264376.198654945</v>
       </c>
       <c r="AF8" t="n">
         <v>3.65267819949706e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>45</v>
+        <v>44.83723958333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>1771153.32622882</v>
+        <v>2048267.312327272</v>
       </c>
     </row>
   </sheetData>
@@ -21716,28 +21716,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1197.476656966068</v>
+        <v>1486.357745576096</v>
       </c>
       <c r="AB2" t="n">
-        <v>1638.440391002601</v>
+        <v>2033.700240973006</v>
       </c>
       <c r="AC2" t="n">
-        <v>1482.069939650844</v>
+        <v>1839.606744290756</v>
       </c>
       <c r="AD2" t="n">
-        <v>1197476.656966068</v>
+        <v>1486357.745576096</v>
       </c>
       <c r="AE2" t="n">
-        <v>1638440.391002601</v>
+        <v>2033700.240973006</v>
       </c>
       <c r="AF2" t="n">
         <v>6.422537210950732e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>62</v>
+        <v>61.86197916666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>1482069.939650844</v>
+        <v>1839606.744290756</v>
       </c>
     </row>
   </sheetData>
@@ -22013,28 +22013,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1892.098030522302</v>
+        <v>2184.664558134205</v>
       </c>
       <c r="AB2" t="n">
-        <v>2588.851998834458</v>
+        <v>2989.154429037323</v>
       </c>
       <c r="AC2" t="n">
-        <v>2341.775597542297</v>
+        <v>2703.873725634591</v>
       </c>
       <c r="AD2" t="n">
-        <v>1892098.030522302</v>
+        <v>2184664.558134206</v>
       </c>
       <c r="AE2" t="n">
-        <v>2588851.998834458</v>
+        <v>2989154.429037323</v>
       </c>
       <c r="AF2" t="n">
         <v>3.646290884877726e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>60</v>
+        <v>59.40104166666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>2341775.597542298</v>
+        <v>2703873.725634591</v>
       </c>
     </row>
     <row r="3">
@@ -22119,28 +22119,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1283.484834824151</v>
+        <v>1519.494200499453</v>
       </c>
       <c r="AB3" t="n">
-        <v>1756.120574361041</v>
+        <v>2079.039000476359</v>
       </c>
       <c r="AC3" t="n">
-        <v>1588.518891474728</v>
+        <v>1880.618436220459</v>
       </c>
       <c r="AD3" t="n">
-        <v>1283484.834824151</v>
+        <v>1519494.200499453</v>
       </c>
       <c r="AE3" t="n">
-        <v>1756120.57436104</v>
+        <v>2079039.000476359</v>
       </c>
       <c r="AF3" t="n">
         <v>4.548548264420462e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>48</v>
+        <v>47.6171875</v>
       </c>
       <c r="AH3" t="n">
-        <v>1588518.891474728</v>
+        <v>1880618.436220459</v>
       </c>
     </row>
     <row r="4">
@@ -22225,28 +22225,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1226.967842461495</v>
+        <v>1453.568265695063</v>
       </c>
       <c r="AB4" t="n">
-        <v>1678.791532056723</v>
+        <v>1988.836228030018</v>
       </c>
       <c r="AC4" t="n">
-        <v>1518.570024435943</v>
+        <v>1799.024489776009</v>
       </c>
       <c r="AD4" t="n">
-        <v>1226967.842461495</v>
+        <v>1453568.265695063</v>
       </c>
       <c r="AE4" t="n">
-        <v>1678791.532056723</v>
+        <v>1988836.228030018</v>
       </c>
       <c r="AF4" t="n">
         <v>4.645361279703256e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>47</v>
+        <v>46.62760416666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>1518570.024435943</v>
+        <v>1799024.489776009</v>
       </c>
     </row>
   </sheetData>
@@ -22522,28 +22522,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2523.878217779072</v>
+        <v>2848.644962822741</v>
       </c>
       <c r="AB2" t="n">
-        <v>3453.28152321411</v>
+        <v>3897.641711480477</v>
       </c>
       <c r="AC2" t="n">
-        <v>3123.705181349482</v>
+        <v>3525.656256911132</v>
       </c>
       <c r="AD2" t="n">
-        <v>2523878.217779072</v>
+        <v>2848644.962822741</v>
       </c>
       <c r="AE2" t="n">
-        <v>3453281.52321411</v>
+        <v>3897641.711480477</v>
       </c>
       <c r="AF2" t="n">
         <v>2.878272936348646e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>68</v>
+        <v>67.00520833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>3123705.181349482</v>
+        <v>3525656.256911132</v>
       </c>
     </row>
     <row r="3">
@@ -22628,28 +22628,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1593.650167596842</v>
+        <v>1842.044648855239</v>
       </c>
       <c r="AB3" t="n">
-        <v>2180.502466189384</v>
+        <v>2520.36675383823</v>
       </c>
       <c r="AC3" t="n">
-        <v>1972.3983711707</v>
+        <v>2279.826488208864</v>
       </c>
       <c r="AD3" t="n">
-        <v>1593650.167596842</v>
+        <v>1842044.648855239</v>
       </c>
       <c r="AE3" t="n">
-        <v>2180502.466189384</v>
+        <v>2520366.753838229</v>
       </c>
       <c r="AF3" t="n">
         <v>3.806986980755089e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>51</v>
+        <v>50.6640625</v>
       </c>
       <c r="AH3" t="n">
-        <v>1972398.3711707</v>
+        <v>2279826.488208864</v>
       </c>
     </row>
     <row r="4">
@@ -22734,28 +22734,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1349.09562847725</v>
+        <v>1578.278728610917</v>
       </c>
       <c r="AB4" t="n">
-        <v>1845.89215678114</v>
+        <v>2159.470585228813</v>
       </c>
       <c r="AC4" t="n">
-        <v>1669.722800063861</v>
+        <v>1953.373743410576</v>
       </c>
       <c r="AD4" t="n">
-        <v>1349095.62847725</v>
+        <v>1578278.728610917</v>
       </c>
       <c r="AE4" t="n">
-        <v>1845892.15678114</v>
+        <v>2159470.585228812</v>
       </c>
       <c r="AF4" t="n">
         <v>4.150033508162636e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>47</v>
+        <v>46.47135416666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>1669722.800063861</v>
+        <v>1953373.743410576</v>
       </c>
     </row>
     <row r="5">
@@ -22840,28 +22840,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1290.839112139546</v>
+        <v>1520.089532080917</v>
       </c>
       <c r="AB5" t="n">
-        <v>1766.183021031781</v>
+        <v>2079.853559410295</v>
       </c>
       <c r="AC5" t="n">
-        <v>1597.620992357946</v>
+        <v>1881.35525479298</v>
       </c>
       <c r="AD5" t="n">
-        <v>1290839.112139546</v>
+        <v>1520089.532080917</v>
       </c>
       <c r="AE5" t="n">
-        <v>1766183.021031781</v>
+        <v>2079853.559410295</v>
       </c>
       <c r="AF5" t="n">
         <v>4.225278601393652e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>46</v>
+        <v>45.64453125</v>
       </c>
       <c r="AH5" t="n">
-        <v>1597620.992357946</v>
+        <v>1881355.25479298</v>
       </c>
     </row>
   </sheetData>
